--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.59642866666667</v>
+        <v>34.29298266666667</v>
       </c>
       <c r="H2">
-        <v>37.789286</v>
+        <v>102.878948</v>
       </c>
       <c r="I2">
-        <v>0.07012550280485506</v>
+        <v>0.1703377185274763</v>
       </c>
       <c r="J2">
-        <v>0.07012550280485506</v>
+        <v>0.1703377185274763</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N2">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q2">
-        <v>1342.307714969053</v>
+        <v>705.3514989062111</v>
       </c>
       <c r="R2">
-        <v>12080.76943472148</v>
+        <v>6348.1634901559</v>
       </c>
       <c r="S2">
-        <v>0.03066830458804685</v>
+        <v>0.02222098601687886</v>
       </c>
       <c r="T2">
-        <v>0.03066830458804685</v>
+        <v>0.02222098601687886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.59642866666667</v>
+        <v>34.29298266666667</v>
       </c>
       <c r="H3">
-        <v>37.789286</v>
+        <v>102.878948</v>
       </c>
       <c r="I3">
-        <v>0.07012550280485506</v>
+        <v>0.1703377185274763</v>
       </c>
       <c r="J3">
-        <v>0.07012550280485506</v>
+        <v>0.1703377185274763</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>308.700149</v>
       </c>
       <c r="O3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q3">
-        <v>1296.173135422624</v>
+        <v>3528.74961961814</v>
       </c>
       <c r="R3">
-        <v>11665.55821880361</v>
+        <v>31758.74657656326</v>
       </c>
       <c r="S3">
-        <v>0.02961424721968553</v>
+        <v>0.1111676888419395</v>
       </c>
       <c r="T3">
-        <v>0.02961424721968553</v>
+        <v>0.1111676888419395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.59642866666667</v>
+        <v>34.29298266666667</v>
       </c>
       <c r="H4">
-        <v>37.789286</v>
+        <v>102.878948</v>
       </c>
       <c r="I4">
-        <v>0.07012550280485506</v>
+        <v>0.1703377185274763</v>
       </c>
       <c r="J4">
-        <v>0.07012550280485506</v>
+        <v>0.1703377185274763</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>102.603332</v>
       </c>
       <c r="O4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q4">
-        <v>430.8118508334391</v>
+        <v>1172.858095272748</v>
       </c>
       <c r="R4">
-        <v>3877.306657500952</v>
+        <v>10555.72285745474</v>
       </c>
       <c r="S4">
-        <v>0.009842950997122684</v>
+        <v>0.03694904366865793</v>
       </c>
       <c r="T4">
-        <v>0.009842950997122684</v>
+        <v>0.03694904366865794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>322.419952</v>
       </c>
       <c r="I5">
-        <v>0.5983140631002458</v>
+        <v>0.5338339874103145</v>
       </c>
       <c r="J5">
-        <v>0.5983140631002458</v>
+        <v>0.5338339874103145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N5">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q5">
-        <v>11452.63207750345</v>
+        <v>2210.553284627955</v>
       </c>
       <c r="R5">
-        <v>103073.688697531</v>
+        <v>19894.9795616516</v>
       </c>
       <c r="S5">
-        <v>0.2616634062151755</v>
+        <v>0.06963999325648969</v>
       </c>
       <c r="T5">
-        <v>0.2616634062151755</v>
+        <v>0.0696399932564897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>322.419952</v>
       </c>
       <c r="I6">
-        <v>0.5983140631002458</v>
+        <v>0.5338339874103145</v>
       </c>
       <c r="J6">
-        <v>0.5983140631002458</v>
+        <v>0.5338339874103145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>308.700149</v>
       </c>
       <c r="O6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q6">
         <v>11059.00969144143</v>
@@ -818,10 +818,10 @@
         <v>99531.08722297284</v>
       </c>
       <c r="S6">
-        <v>0.2526701395492665</v>
+        <v>0.3483966505991979</v>
       </c>
       <c r="T6">
-        <v>0.2526701395492665</v>
+        <v>0.3483966505991979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>322.419952</v>
       </c>
       <c r="I7">
-        <v>0.5983140631002458</v>
+        <v>0.5338339874103145</v>
       </c>
       <c r="J7">
-        <v>0.5983140631002458</v>
+        <v>0.5338339874103145</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>102.603332</v>
       </c>
       <c r="O7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q7">
         <v>3675.706819831118</v>
@@ -880,10 +880,10 @@
         <v>33081.36137848006</v>
       </c>
       <c r="S7">
-        <v>0.08398051733580381</v>
+        <v>0.1157973435546269</v>
       </c>
       <c r="T7">
-        <v>0.08398051733580381</v>
+        <v>0.1157973435546269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.55718233333334</v>
+        <v>59.55718233333332</v>
       </c>
       <c r="H8">
         <v>178.671547</v>
       </c>
       <c r="I8">
-        <v>0.3315604340948992</v>
+        <v>0.2958282940622093</v>
       </c>
       <c r="J8">
-        <v>0.3315604340948992</v>
+        <v>0.2958282940622093</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N8">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O8">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P8">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q8">
-        <v>6346.565954793532</v>
+        <v>1224.99545279508</v>
       </c>
       <c r="R8">
-        <v>57119.09359314178</v>
+        <v>11024.95907515572</v>
       </c>
       <c r="S8">
-        <v>0.1450028302893452</v>
+        <v>0.03859154885119075</v>
       </c>
       <c r="T8">
-        <v>0.1450028302893452</v>
+        <v>0.03859154885119076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.55718233333334</v>
+        <v>59.55718233333332</v>
       </c>
       <c r="H9">
         <v>178.671547</v>
       </c>
       <c r="I9">
-        <v>0.3315604340948992</v>
+        <v>0.2958282940622093</v>
       </c>
       <c r="J9">
-        <v>0.3315604340948992</v>
+        <v>0.2958282940622093</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>308.700149</v>
       </c>
       <c r="O9">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P9">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q9">
-        <v>6128.437020106723</v>
+        <v>6128.437020106722</v>
       </c>
       <c r="R9">
-        <v>55155.93318096051</v>
+        <v>55155.9331809605</v>
       </c>
       <c r="S9">
-        <v>0.1400191409803737</v>
+        <v>0.19306673841381</v>
       </c>
       <c r="T9">
-        <v>0.1400191409803737</v>
+        <v>0.19306673841381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.55718233333334</v>
+        <v>59.55718233333332</v>
       </c>
       <c r="H10">
         <v>178.671547</v>
       </c>
       <c r="I10">
-        <v>0.3315604340948992</v>
+        <v>0.2958282940622093</v>
       </c>
       <c r="J10">
-        <v>0.3315604340948992</v>
+        <v>0.2958282940622093</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>102.603332</v>
       </c>
       <c r="O10">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P10">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q10">
         <v>2036.921783977178</v>
@@ -1066,10 +1066,10 @@
         <v>18332.2960557946</v>
       </c>
       <c r="S10">
-        <v>0.0465384628251802</v>
+        <v>0.06417000679720856</v>
       </c>
       <c r="T10">
-        <v>0.0465384628251802</v>
+        <v>0.06417000679720856</v>
       </c>
     </row>
   </sheetData>
